--- a/docs/OSA_DATAFLOW.xlsx
+++ b/docs/OSA_DATAFLOW.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29512"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://perficient-my.sharepoint.com/personal/alex_harris_perficient_com/Documents/Perficient/clients/Perficient/opal-ai/dev-opal-ai/my-nextjs-app/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{8B53DB5D-B576-2848-A769-7ADEA527CA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4CADD94-2710-4A48-A0E3-887C8199BC68}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="8_{8B53DB5D-B576-2848-A769-7ADEA527CA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63E64654-DA07-45ED-A159-FD29EB703C3F}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1480" windowWidth="28040" windowHeight="17440" xr2:uid="{932EA2AB-8ADE-F44D-8EDA-1D4685D48CBD}"/>
+    <workbookView xWindow="560" yWindow="1480" windowWidth="31620" windowHeight="20500" xr2:uid="{932EA2AB-8ADE-F44D-8EDA-1D4685D48CBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,46 +36,227 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+  <si>
+    <t>Micro Service</t>
+  </si>
+  <si>
+    <t>Strategy Intake Service** ("Engine Form")</t>
+  </si>
+  <si>
+    <t>Ingestion &amp; Orchestration Service** ("Opal Connector")</t>
+  </si>
+  <si>
+    <t>Ingestion &amp; Orchestration Service** ("Opal Connector")2</t>
+  </si>
+  <si>
+    <t>Ingestion &amp; Orchestration Service** ("Opal Connector")3</t>
+  </si>
+  <si>
+    <t>Ingestion &amp; Orchestration Service** ("Opal Connector")4</t>
+  </si>
+  <si>
+    <t>Preferences &amp; Policy Service** ("Personal Configurator")</t>
+  </si>
+  <si>
+    <t>Recommendation Service** ("Decision Layer")</t>
+  </si>
+  <si>
+    <t>Knowledge &amp; Retrieval Service** ("RAG Brain")</t>
+  </si>
+  <si>
+    <t>UX Design Service** ("Artist")</t>
+  </si>
   <si>
     <t>OSA Data Flow</t>
   </si>
   <si>
+    <t>User Submits Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opal Webhook &gt; startegy_workflow </t>
+  </si>
+  <si>
+    <t>Opal Webhook &gt; startegy_workflow &gt;
+9 Opal agents run</t>
+  </si>
+  <si>
+    <t>startegy_workflow &gt;
+9 Opal agents run &gt; Custom tool send_data_to_osa_webhook sends data to OSA</t>
+  </si>
+  <si>
+    <t>Custom tool send_data_to_osa_webhook sends data to OSA &gt;
+Admin dashboard and recent data show Agents successfully connected to OSA</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Opal Mapping</t>
+  </si>
+  <si>
+    <t>Ongoing Learning</t>
+  </si>
+  <si>
+    <t>Presentation of UX and Content</t>
+  </si>
+  <si>
+    <t>OSA Service</t>
+  </si>
+  <si>
+    <t>Engine Form</t>
+  </si>
+  <si>
     <t>Force Sync</t>
   </si>
   <si>
     <t>startegy_workflow Tiggers</t>
   </si>
   <si>
+    <t>OSA Workflow Data Tools</t>
+  </si>
+  <si>
+    <t>Admin Dashboard and Recent  Data</t>
+  </si>
+  <si>
+    <t>Personal Configurator</t>
+  </si>
+  <si>
     <t>How</t>
   </si>
   <si>
+    <t>/engine/</t>
+  </si>
+  <si>
+    <t>Manually clicking the Force Sync Button</t>
+  </si>
+  <si>
+    <t>Opal Webhook</t>
+  </si>
+  <si>
+    <t>Opal Custom Tool named:
+send_data_to_osa_webhook</t>
+  </si>
+  <si>
+    <t>Powers all admin interfaces with contextual knowledge</t>
+  </si>
+  <si>
     <t>Details</t>
   </si>
   <si>
-    <t>OSA Service Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opal Webhook Initated </t>
-  </si>
-  <si>
-    <t>Micro Service</t>
-  </si>
-  <si>
-    <t>Ingestion &amp; Orchestration Service** ("Opal Connector")</t>
+    <t>Business context collection and validation</t>
+  </si>
+  <si>
+    <t>Opal Webhook is only triggered when clicking Force Sync</t>
+  </si>
+  <si>
+    <t>Opal Agents are dependant on the Opal Instructions
+List of OPAL Instructions here:
+Brand &amp; Tone Guidelines
+Company Overview
+Marketing Strategy
+Personalization Maturity Rubric
+Data Governance &amp; ID Strategy
+Technical Implementation Guidelines
+KPI &amp; Experimentation Definitions
+Personas
+Content Guidelines</t>
+  </si>
+  <si>
+    <t>The 9 Opal Agents are:
+Integration Health Agent
+Roadmap Generator Agent
+Customer Journey Agent
+Experiment Blueprinter Agent
+CMP Organizer Agent
+Personalization Idea Generator Agent
+Audience Suggester Agent
+GEO Audit Agent
+Content Review Agent</t>
+  </si>
+  <si>
+    <t>User preference management and policy enforcement</t>
+  </si>
+  <si>
+    <t>Central AI intelligence engine for strategy generation</t>
+  </si>
+  <si>
+    <t>Foundation knowledge layer with semantic search capabilities</t>
+  </si>
+  <si>
+    <t>Frontend experience layer and admin dashboard</t>
+  </si>
+  <si>
+    <t>Key Features</t>
+  </si>
+  <si>
+    <t>Dynamic form generation based on business needs
+     - Enhanced validation and workflow coordination
+     - Integration with OPAL agent trigger system</t>
+  </si>
+  <si>
+    <t>Start strategy_workflow opal workflow agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     - Configurable business rules and constraints
+     - Risk tolerance and compliance management
+     - Integration settings and API configurations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Supabase with pgvector for semantic search
+     - Continuous learning from user interactions
+     - File storage and knowledge base management
+     - Contextual insight generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     - shadcn/ui + Tailwind CSS component library
+     - Responsive design with accessibility compliance
+     - Real-time dashboard with monitoring widgets
+     - Interactive data visualizations</t>
+  </si>
+  <si>
+    <t>Admin Interface</t>
+  </si>
+  <si>
+    <t>/engine/admin/strategy-ai</t>
+  </si>
+  <si>
+    <t>/engine/admin/configurations</t>
+  </si>
+  <si>
+    <t>Issues</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2E3442"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,14 +279,242 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -116,6 +525,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC828494-96A9-4ACA-B264-4C6B2C0EAA6E}" name="Table1" displayName="Table1" ref="A1:J21" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J21" xr:uid="{DC828494-96A9-4ACA-B264-4C6B2C0EAA6E}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{96808681-73C4-4A2C-B7C1-A380FCDDB4A3}" name="Micro Service" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{BD92A4C2-00BA-4566-8307-A402D5331D83}" name="Strategy Intake Service** (&quot;Engine Form&quot;)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{F8E05B7A-5F19-4BA1-89BA-E996E243669E}" name="Ingestion &amp; Orchestration Service** (&quot;Opal Connector&quot;)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{84216C1A-375E-43A6-A385-97637150D3B5}" name="Ingestion &amp; Orchestration Service** (&quot;Opal Connector&quot;)2" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{B9A0D872-07E5-4E71-9B1B-EEC6B8225335}" name="Ingestion &amp; Orchestration Service** (&quot;Opal Connector&quot;)3" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{C283BBAE-E89B-4FF9-91DF-B4E0082C6641}" name="Ingestion &amp; Orchestration Service** (&quot;Opal Connector&quot;)4" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{0A1751DA-5844-411B-8D38-1DF55E190786}" name="Preferences &amp; Policy Service** (&quot;Personal Configurator&quot;)" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{D05449B1-C43B-4B73-8D28-E6F5CB82B1A2}" name="Recommendation Service** (&quot;Decision Layer&quot;)" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{F6AD1038-2807-4936-BDF1-CC5A8FE314CD}" name="Knowledge &amp; Retrieval Service** (&quot;RAG Brain&quot;)" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{89B4204C-6B7B-4822-995F-5254E3D35717}" name="UX Design Service** (&quot;Artist&quot;)" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,65 +863,422 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEC7F1D-B00C-8B4C-BECF-378DDA9F07AA}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="4" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="1" max="2" width="27.375" customWidth="1"/>
+    <col min="3" max="3" width="34.375" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="6" width="32.875" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="69.75">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-    </row>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="84.75">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="42">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="210.75">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="154.5">
+      <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10"/>
+    <row r="25" spans="1:10"/>
+    <row r="26" spans="1:10"/>
+    <row r="27" spans="1:10"/>
+    <row r="28" spans="1:10"/>
+    <row r="29" spans="1:10"/>
+    <row r="30" spans="1:10"/>
+    <row r="31" spans="1:10"/>
+    <row r="32" spans="1:10"/>
+    <row r="33"/>
+    <row r="34"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>